--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,32 +441,37 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Length in characters</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Overall Sentiment</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Direct Speech Sentiment</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Author's Speech Sentiment</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Difference Value</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>More intensive?</t>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Exceeds?</t>
         </is>
       </c>
     </row>
@@ -479,22 +484,27 @@
           <t>有吉 佐和子 - 祈禱</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>30102</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.007670784500052793</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.06503014642549526</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>-0.03552984574111335</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>0.1005599921666086</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -509,22 +519,27 @@
           <t>林 京子 - ギヤマン ビードロ</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>112867</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>-0.01145352717564783</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>-0.05445544554455446</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>-0.01038464377999262</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>-0.04407080176456184</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -539,22 +554,27 @@
           <t>林 京子 - 二人の墓標</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>22251</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>-0.1101037437979251</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>-0.1390887290167866</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>-0.09874118831822759</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>-0.04034754069855898</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -569,22 +589,27 @@
           <t>林 京子 - 同期会</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>16390</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.01610486891385768</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.1428571428571428</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.01738586616635397</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>0.1254712766907889</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -599,22 +624,27 @@
           <t>林 京子 - 昭和二十年の夏</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>18826</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>-0.01325469637396243</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.5</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>-0.01508955875928353</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>0.5150895587592835</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -629,22 +659,27 @@
           <t>林 京子 - 曇り日の行進</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>17944</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>-0.008521739130434783</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.1555555555555556</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>-0.01967509025270758</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>0.1752306458082631</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -659,22 +694,27 @@
           <t>林 京子 - 無きが如き</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>131538</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.01569102321031774</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>-0.1407100340136054</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.0173170995965895</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>-0.1580271336101949</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -689,22 +729,27 @@
           <t>林 京子 - 祭りの場</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>37505</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>-0.09755657438075784</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>-0.1623325453112687</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>-0.09395017261350357</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>-0.06838237269776516</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -719,22 +764,27 @@
           <t>林 京子 - 道</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>31613</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>-0.08161037188672808</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>-0.09252232142857143</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>0.09252232142857143</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -749,22 +799,27 @@
           <t>廣中 俊雄 - 炎の日</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>48659</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>-0.1532499805477747</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>-0.06442577030812324</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>-0.1747190487836122</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>0.110293278475489</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -779,22 +834,27 @@
           <t>稲田 美穂子 - 見知られぬ旅</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>10534</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.001326302333013742</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2142857142857143</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>-0.006592160673793327</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>0.2208778749595076</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -809,22 +869,27 @@
           <t>古浦 千穂子 - 風化の底</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>18402</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>-0.1048689138576779</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.009770114942528735</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>-0.1243647234678625</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>0.1341348384103912</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -839,22 +904,27 @@
           <t>美川 きよ - あの日のこと</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>6988</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>-0.1238632295023272</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2407407407407407</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>-0.1607949959644875</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>0.4015357367052282</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -869,22 +939,27 @@
           <t>中本 たか子 - 死の鞭と光</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>30634</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>-0.06585474101921471</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>-0.03687943262411347</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>-0.08189529634483762</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>0.04501586372072415</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -899,22 +974,27 @@
           <t>大田 洋子 - たましいの後遺症</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>2866</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>-0.3129629629629629</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>-0.6521739130434783</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>-0.2368159203980099</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>-0.4153579926454684</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -929,22 +1009,27 @@
           <t>大田 洋子 - ほたる 「H市歴訪」のうち</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>19280</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>-0.05384238864415076</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.01358024691358025</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>-0.08864468864468865</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>0.1022249355582689</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -959,22 +1044,27 @@
           <t>大田 洋子 - わが小説『山上』</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
         <v>1447</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>-0.3010752688172043</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>-0.2777777777777778</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>0.2777777777777778</v>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -989,22 +1079,27 @@
           <t>大田 洋子 - ヒ力ドンはごめんだ!</t>
         </is>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>6660</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>-0.167526455026455</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>-0.1564153439153439</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>-0.343584656084656</v>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1019,22 +1114,27 @@
           <t>大田 洋子 - 創作態度</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>1548</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>-0.08492063492063492</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.2666666666666667</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>-0.07312925170068027</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>0.3397959183673469</v>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1049,22 +1149,27 @@
           <t>大田 洋子 - 原子爆弾</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
         <v>2173</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>-0.2942028985507246</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>-0.3474576271186441</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>0.1176470588235294</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>-0.4651046859421735</v>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1079,22 +1184,27 @@
           <t>大田 洋子 - 原爆詩人の死</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
         <v>1137</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>-0.1698924731182796</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>-0.1755555555555555</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>0.1755555555555555</v>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1109,22 +1219,27 @@
           <t>大田 洋子 - 受診証がふしぎでならない</t>
         </is>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
         <v>840</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>-0.15</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>0</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>-0.15</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>0.15</v>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1139,22 +1254,27 @@
           <t>大田 洋子 - 屍の街 序(冬芽書房版)</t>
         </is>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
         <v>3644</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>-0.2123677248677249</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>-1</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>-0.1521825396825397</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>-0.8478174603174603</v>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1169,22 +1289,27 @@
           <t>大田 洋子 - 屍の街</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
         <v>99302</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>-0.1484439176828183</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>-0.1545931192990017</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>-0.1623021808579395</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>0.007709061558937885</v>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1199,22 +1324,27 @@
           <t>大田 洋子 - 広島から来た娘たち</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
         <v>5069</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>-0.1776724975704567</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>-0.06818181818181818</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>-0.1716137566137566</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>0.1034319384319384</v>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1229,22 +1359,27 @@
           <t>大田 洋子 - 広島の木の皮</t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
         <v>3725</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>-0.2434684684684685</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>0.2592592592592592</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>-0.2687214611872146</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>0.5279807204464739</v>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1259,22 +1394,27 @@
           <t>大田 洋子 - 恋</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
         <v>24230</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>-0.008125038010095481</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>0.008514664143803218</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>-0.01978163134232499</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>0.0282962954861282</v>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1289,22 +1429,27 @@
           <t>大田 洋子 - 愛するふるさと</t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
         <v>2493</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>0.1604519774011299</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>0</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>0.1604519774011299</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>-0.1604519774011299</v>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1319,22 +1464,27 @@
           <t>大田 洋子 - 暴露の時間</t>
         </is>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
         <v>29676</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>-0.04110135674381484</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>-0.011157377749306</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>-0.06523621306230001</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>0.05407883531299401</v>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1349,22 +1499,27 @@
           <t>大田 洋子 - 死の魔手</t>
         </is>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
         <v>1629</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>-0.1779591836734694</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>-0.1666666666666667</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>-0.2161616161616162</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>0.04949494949494951</v>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1379,22 +1534,27 @@
           <t>大田 洋子 - 病葉</t>
         </is>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
         <v>26407</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>-0.07019546110455201</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>-0.02039860888175495</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>-0.1091977869986169</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>0.08879917811686193</v>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1409,22 +1569,27 @@
           <t>大田 洋子 - 私は忘れたい広島の思い出を</t>
         </is>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
         <v>7517</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>-0.1544256120527307</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>-0.3474969474969475</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>-0.1271367521367521</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>-0.2203601953601954</v>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1439,22 +1604,27 @@
           <t>大田 洋子 - 蠣転の旅</t>
         </is>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
         <v>44581</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>0.00511921940493369</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>-0.009041591320072333</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>0.01311417462000707</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>-0.0221557659400794</v>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1469,22 +1639,27 @@
           <t>大田 洋子 - 血のなかに死の灰が流れる</t>
         </is>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
         <v>2154</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>-0.2421383647798742</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>-0.25</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>-0.246031746031746</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>-0.003968253968253982</v>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1499,22 +1674,27 @@
           <t>田 洋子 - 私と「原爆症」とについて</t>
         </is>
       </c>
-      <c r="C36" t="n">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
         <v>6037</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>-0.1575870646766169</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>-0.4528301886792453</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>-0.107235142118863</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>-0.3455950465603823</v>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1529,22 +1709,27 @@
           <t>佐多 稲子 - 今日になっての話</t>
         </is>
       </c>
-      <c r="C37" t="n">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
         <v>11645</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>-0.02761044176706827</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>-0.07172995780590717</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>0.01529790660225443</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>-0.0870278644081616</v>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1559,22 +1744,27 @@
           <t>佐多 稲子 - 樹影</t>
         </is>
       </c>
-      <c r="C38" t="n">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
         <v>146871</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>-0.01858757203106345</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>-0.02101293103448276</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>-0.01874996457169159</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>-0.002262966462791168</v>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1589,22 +1779,27 @@
           <t>佐多 稲子 - 歴訪</t>
         </is>
       </c>
-      <c r="C39" t="n">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
         <v>13606</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>0.01470342522974102</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>0.003401360544217687</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>0.01396574440052701</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>-0.01056438385630932</v>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1619,22 +1814,27 @@
           <t>佐多 稲子 - 色のない画</t>
         </is>
       </c>
-      <c r="C40" t="n">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
         <v>9257</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>-0.04236111111111111</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>-0.07407407407407407</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>-0.02803030303030303</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>-0.04604377104377104</v>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1649,22 +1849,27 @@
           <t>竹西 寛子 - 儀式</t>
         </is>
       </c>
-      <c r="C41" t="n">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
         <v>20449</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>-0.04096650192202086</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>0</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>-0.04096650192202086</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>0.04096650192202086</v>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1679,22 +1884,27 @@
           <t>竹西 寛子 - 管絃祭</t>
         </is>
       </c>
-      <c r="C42" t="n">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
         <v>137466</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>-0.001000461791285818</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>0.01421188630490956</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>-0.0007965318077677629</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>0.01500841811267732</v>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1709,22 +1919,27 @@
           <t>安部 和枝 - 小さき十字架を負いて</t>
         </is>
       </c>
-      <c r="C43" t="n">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
         <v>39668</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>-0.06152380952380952</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>-0.05264367816091954</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>-0.06144425889378068</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>0.008800580732861135</v>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1739,22 +1954,27 @@
           <t>藤本 仁 - 倉橋島</t>
         </is>
       </c>
-      <c r="C44" t="n">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
         <v>24797</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>-0.09501103752759382</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>-0.07133592736705577</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>-0.1142454954954955</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>0.04290956812843973</v>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1769,22 +1989,27 @@
           <t>文沢隆一 - 重い車</t>
         </is>
       </c>
-      <c r="C45" t="n">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
         <v>30759</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>-0.1078187403993856</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>-0.1428571428571428</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>-0.1062356390143412</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>-0.03662150384280168</v>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1799,22 +2024,27 @@
           <t>原 民喜 - 二つの死</t>
         </is>
       </c>
-      <c r="C46" t="n">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
         <v>8096</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>-0.05096153846153846</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>0.03968253968253968</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>-0.07814814814814815</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>0.1178306878306878</v>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1829,22 +2059,27 @@
           <t>原 民喜 - 原爆以後</t>
         </is>
       </c>
-      <c r="C47" t="n">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
         <v>123736</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>-0.09653212046239816</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>0.0299039780521262</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>-0.1092953993349244</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>0.1391993773870506</v>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1859,22 +2094,27 @@
           <t>原 民喜 - 原爆被災時のノート</t>
         </is>
       </c>
-      <c r="C48" t="n">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
         <v>2901</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>-0.6739469092721835</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>0</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>-0.6739469092721835</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>0.6739469092721835</v>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1889,22 +2129,27 @@
           <t>原 民喜 - 夏の花</t>
         </is>
       </c>
-      <c r="C49" t="n">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
         <v>58138</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>-0.1195300546448087</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>-0.04332129963898917</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>-0.123340370631011</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>0.08001907099202185</v>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1919,22 +2164,27 @@
           <t>原 民喜 - 心願の国</t>
         </is>
       </c>
-      <c r="C50" t="n">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
         <v>5334</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>-0.00508130081300813</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>-0.001041666666666667</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>0.334375</v>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1949,22 +2199,27 @@
           <t>原 民喜 - 星のわななき</t>
         </is>
       </c>
-      <c r="C51" t="n">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
         <v>4890</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>-0.02424242424242424</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>0</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>-0.03415977961432507</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>0.03415977961432507</v>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1979,22 +2234,27 @@
           <t>原 民喜 - 魔のひととき</t>
         </is>
       </c>
-      <c r="C52" t="n">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
         <v>13361</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>-0.1327683615819209</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>-0.1145404663923182</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>-0.1327683615819209</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>0.01822789518960266</v>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2009,22 +2269,27 @@
           <t>橋岡 武 - 八月二十三日の事</t>
         </is>
       </c>
-      <c r="C53" t="n">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
         <v>12926</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>-0.1270255863539446</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>0</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>-0.1410956252419667</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>0.1410956252419667</v>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2039,22 +2304,27 @@
           <t>細田 民樹 - 被爆者たち</t>
         </is>
       </c>
-      <c r="C54" t="n">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
         <v>15609</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>-0.1018740399385561</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>-0.1056743655546051</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>-0.119656699889258</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>0.01398233433465296</v>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2069,22 +2339,27 @@
           <t>堀田 善衛 - 審判 2</t>
         </is>
       </c>
-      <c r="C55" t="n">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
         <v>185789</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>0.03972419751036834</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>0.01438643755157517</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>0.04739880328619969</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>-0.03301236573462452</v>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2099,22 +2374,27 @@
           <t>堀田 善衛 - 審判 3</t>
         </is>
       </c>
-      <c r="C56" t="n">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
         <v>117979</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>0.02139922832663966</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>0.0193068356374808</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>0.01817753809279233</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>0.001129297544688469</v>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2129,22 +2409,27 @@
           <t>堀田 善衛 - 審判 4</t>
         </is>
       </c>
-      <c r="C57" t="n">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
         <v>101304</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>0.0314160259309513</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>-0.02943414170233</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>0.04037125366605136</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>-0.06980539536838136</v>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2159,22 +2444,27 @@
           <t>堀田 善衛 - 審判 １</t>
         </is>
       </c>
-      <c r="C58" t="n">
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
         <v>123591</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>0.01881660614573338</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>0.02213064713064713</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>0.01819215493601127</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>0.003938492194635865</v>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2189,22 +2479,27 @@
           <t>いいだ　もも - アメリカの英雄1</t>
         </is>
       </c>
-      <c r="C59" t="n">
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
         <v>82307</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>-0.01057269623177738</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>-0.008014825110030113</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>-0.001573458840900701</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>-0.006441366269129412</v>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2219,22 +2514,27 @@
           <t>いいだ　もも - アメリカの英雄2</t>
         </is>
       </c>
-      <c r="C60" t="n">
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
         <v>69493</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>-0.01636527512683731</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>0.02231185127359991</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>-0.06642996379838485</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>0.08874181507198475</v>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2249,22 +2549,27 @@
           <t>いいだ　もも - アメリカの英雄3</t>
         </is>
       </c>
-      <c r="C61" t="n">
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
         <v>92379</v>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
         <v>0.004903348449789946</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>0.02677353449630678</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>-0.02577422577422578</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>0.05254776027053255</v>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2279,22 +2584,27 @@
           <t>いいだ　もも - アメリカの英雄4</t>
         </is>
       </c>
-      <c r="C62" t="n">
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
         <v>74405</v>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
         <v>0.01707020334095685</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>0.02426600127053985</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>0.01551917693368007</v>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
         <v>0.008746824336859783</v>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2309,22 +2619,27 @@
           <t>いいだ　もも - アメリカの英雄5</t>
         </is>
       </c>
-      <c r="C63" t="n">
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
         <v>91328</v>
       </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
         <v>0.06407303828677384</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>0.06865678424762235</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>0.0635395306447938</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>0.005117253602828553</v>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2339,22 +2654,27 @@
           <t>いいだ　もも - アメリカの英雄6</t>
         </is>
       </c>
-      <c r="C64" t="n">
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
         <v>78366</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>-0.01333795999715282</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>-0.005698412698412698</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>0.001722499926919816</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
         <v>-0.007420912625332515</v>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2369,22 +2689,27 @@
           <t>いいだ　もも - アメリカの英雄7</t>
         </is>
       </c>
-      <c r="C65" t="n">
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
         <v>37416</v>
       </c>
-      <c r="D65" t="n">
+      <c r="E65" t="n">
         <v>0.003067334718318465</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>0.04651535380507343</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>-0.02299465240641711</v>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>0.06951000621149055</v>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2399,22 +2724,27 @@
           <t>生口 十朗 - 死者への勲章</t>
         </is>
       </c>
-      <c r="C66" t="n">
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
         <v>33440</v>
       </c>
-      <c r="D66" t="n">
+      <c r="E66" t="n">
         <v>0.02301495972382048</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>-0.025</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>0.03510520487264673</v>
       </c>
-      <c r="G66" t="n">
+      <c r="H66" t="n">
         <v>-0.06010520487264674</v>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2429,22 +2759,27 @@
           <t>井上 光晴 - 「七〇年夏」への告発</t>
         </is>
       </c>
-      <c r="C67" t="n">
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
         <v>5483</v>
       </c>
-      <c r="D67" t="n">
+      <c r="E67" t="n">
         <v>-0.1769301895515488</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>-0.0917989417989418</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>-0.1961538461538462</v>
       </c>
-      <c r="G67" t="n">
+      <c r="H67" t="n">
         <v>0.1043549043549044</v>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2459,22 +2794,27 @@
           <t>井上 光晴 - 「前科三犯」の被爆者</t>
         </is>
       </c>
-      <c r="C68" t="n">
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
         <v>652</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>-0.2</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>0.09090909090909091</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>-0.4666666666666667</v>
       </c>
-      <c r="G68" t="n">
+      <c r="H68" t="n">
         <v>0.5575757575757576</v>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2489,22 +2829,27 @@
           <t>井上 光晴 - プルトニウムの秋</t>
         </is>
       </c>
-      <c r="C69" t="n">
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
         <v>10569</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>-0.0945945945945946</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>0</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>-0.09479166666666666</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>0.09479166666666666</v>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2519,22 +2864,27 @@
           <t>井上 光晴 - 原子力潜水艦をむかえる基地市民の 感覚</t>
         </is>
       </c>
-      <c r="C70" t="n">
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
         <v>10043</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>-0.03028247141150367</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>-0.006902916205241787</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>-0.04311171009284217</v>
       </c>
-      <c r="G70" t="n">
+      <c r="H70" t="n">
         <v>0.03620879388760039</v>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2549,22 +2899,27 @@
           <t>井上 光晴 - 地の群れ</t>
         </is>
       </c>
-      <c r="C71" t="n">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
         <v>99819</v>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
         <v>-0.1346115219574546</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>-0.1163983720869948</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>-0.1163536118119802</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>-4.476027501465474e-05</v>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2579,22 +2934,27 @@
           <t>井上 光晴 - 夏の客</t>
         </is>
       </c>
-      <c r="C72" t="n">
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
         <v>8965</v>
       </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
         <v>0.03356348293057154</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>0.05760080140245429</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>-0.00625</v>
       </c>
-      <c r="G72" t="n">
+      <c r="H72" t="n">
         <v>0.06385080140245429</v>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2609,22 +2969,27 @@
           <t>井上 光晴 - 手の家</t>
         </is>
       </c>
-      <c r="C73" t="n">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
         <v>17892</v>
       </c>
-      <c r="D73" t="n">
+      <c r="E73" t="n">
         <v>0.008917748917748918</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>0.04692556634304207</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>-0.0409853249475891</v>
       </c>
-      <c r="G73" t="n">
+      <c r="H73" t="n">
         <v>0.08791089129063118</v>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2639,22 +3004,27 @@
           <t>井上 光晴 - 明日(あした)</t>
         </is>
       </c>
-      <c r="C74" t="n">
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
         <v>87635</v>
       </c>
-      <c r="D74" t="n">
+      <c r="E74" t="n">
         <v>-0.01065926370548219</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>0.0006517690875232774</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>-0.02148148148148148</v>
       </c>
-      <c r="G74" t="n">
+      <c r="H74" t="n">
         <v>0.02213325056900476</v>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2669,22 +3039,27 @@
           <t>井上 光晴 - 母・ー九六七年夏</t>
         </is>
       </c>
-      <c r="C75" t="n">
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
         <v>4645</v>
       </c>
-      <c r="D75" t="n">
+      <c r="E75" t="n">
         <v>-0.1020408163265306</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>0</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>-0.1020408163265306</v>
       </c>
-      <c r="G75" t="n">
+      <c r="H75" t="n">
         <v>0.1020408163265306</v>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2699,22 +3074,27 @@
           <t>井上 光晴 - 生きるための夏——自分のなかの被爆者</t>
         </is>
       </c>
-      <c r="C76" t="n">
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
         <v>12225</v>
       </c>
-      <c r="D76" t="n">
+      <c r="E76" t="n">
         <v>-0.09243749337452487</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>-0.05676677790137189</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>-0.06893234016139044</v>
       </c>
-      <c r="G76" t="n">
+      <c r="H76" t="n">
         <v>0.01216556226001855</v>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2729,22 +3109,27 @@
           <t>井上 光晴 - 生者も死者も被爆者　原点への引戻し</t>
         </is>
       </c>
-      <c r="C77" t="n">
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
         <v>2217</v>
       </c>
-      <c r="D77" t="n">
+      <c r="E77" t="n">
         <v>-0.1403726708074534</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>0.1153846153846154</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>-0.3311111111111111</v>
       </c>
-      <c r="G77" t="n">
+      <c r="H77" t="n">
         <v>0.4464957264957266</v>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2759,22 +3144,27 @@
           <t>井上 光晴 - 病み犬を連れた老婆『地の群れ』の舞台</t>
         </is>
       </c>
-      <c r="C78" t="n">
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
         <v>2709</v>
       </c>
-      <c r="D78" t="n">
+      <c r="E78" t="n">
         <v>-0.1631205673758865</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>-0.3333333333333333</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>-0.1631205673758865</v>
       </c>
-      <c r="G78" t="n">
+      <c r="H78" t="n">
         <v>-0.1702127659574468</v>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2789,22 +3179,27 @@
           <t>井上 光晴 - 被爆者の夏——季節</t>
         </is>
       </c>
-      <c r="C79" t="n">
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
         <v>2552</v>
       </c>
-      <c r="D79" t="n">
+      <c r="E79" t="n">
         <v>-0.3674242424242424</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>-0.3333333333333333</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>-0.3378378378378378</v>
       </c>
-      <c r="G79" t="n">
+      <c r="H79" t="n">
         <v>0.004504504504504514</v>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2819,22 +3214,27 @@
           <t>井上 光晴 - 被爆者を差別する立場</t>
         </is>
       </c>
-      <c r="C80" t="n">
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
         <v>4186</v>
       </c>
-      <c r="D80" t="n">
+      <c r="E80" t="n">
         <v>-0.1784420289855072</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>-0.2</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>-0.1455696202531646</v>
       </c>
-      <c r="G80" t="n">
+      <c r="H80" t="n">
         <v>-0.05443037974683546</v>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2849,22 +3249,27 @@
           <t>井上 光晴 - 逆流する重たい時間</t>
         </is>
       </c>
-      <c r="C81" t="n">
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
         <v>4793</v>
       </c>
-      <c r="D81" t="n">
+      <c r="E81" t="n">
         <v>-0.0665079365079365</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>-0.08928571428571429</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>-0.1083333333333333</v>
       </c>
-      <c r="G81" t="n">
+      <c r="H81" t="n">
         <v>0.01904761904761905</v>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2879,22 +3284,27 @@
           <t>石田 耕治 - 雲の記憶</t>
         </is>
       </c>
-      <c r="C82" t="n">
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
         <v>22300</v>
       </c>
-      <c r="D82" t="n">
+      <c r="E82" t="n">
         <v>-0.06284422523633375</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>0.005096839959225281</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>-0.0985906862745098</v>
       </c>
-      <c r="G82" t="n">
+      <c r="H82" t="n">
         <v>0.1036875262337351</v>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2909,22 +3319,27 @@
           <t>岩崎 清一郎 - 過ぐる夏に</t>
         </is>
       </c>
-      <c r="C83" t="n">
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
         <v>22123</v>
       </c>
-      <c r="D83" t="n">
+      <c r="E83" t="n">
         <v>-0.0246031746031746</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>0.03636363636363636</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>-0.06106666666666666</v>
       </c>
-      <c r="G83" t="n">
+      <c r="H83" t="n">
         <v>0.09743030303030303</v>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2939,22 +3354,27 @@
           <t>梶山 季之 - 実験都市</t>
         </is>
       </c>
-      <c r="C84" t="n">
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
         <v>20182</v>
       </c>
-      <c r="D84" t="n">
+      <c r="E84" t="n">
         <v>-0.07676468882315411</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>1</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>-0.07653268371904182</v>
       </c>
-      <c r="G84" t="n">
+      <c r="H84" t="n">
         <v>1.076532683719042</v>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2969,22 +3389,27 @@
           <t>亀沢 深雪 - 広島巡礼</t>
         </is>
       </c>
-      <c r="C85" t="n">
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
         <v>40647</v>
       </c>
-      <c r="D85" t="n">
+      <c r="E85" t="n">
         <v>-0.1171311535366835</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>-0.05303030303030303</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>-0.1195952303824024</v>
       </c>
-      <c r="G85" t="n">
+      <c r="H85" t="n">
         <v>0.06656492735209937</v>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2999,22 +3424,27 @@
           <t>金井利博 - 核権力　ヒロシマの告発 1</t>
         </is>
       </c>
-      <c r="C86" t="n">
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
         <v>63417</v>
       </c>
-      <c r="D86" t="n">
+      <c r="E86" t="n">
         <v>0.005848550500361085</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>0.06199559369202226</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>-0.01490699956609048</v>
       </c>
-      <c r="G86" t="n">
+      <c r="H86" t="n">
         <v>0.07690259325811273</v>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3029,22 +3459,27 @@
           <t>金井利博 - 核権力　ヒロシマの告発 2</t>
         </is>
       </c>
-      <c r="C87" t="n">
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
         <v>64279</v>
       </c>
-      <c r="D87" t="n">
+      <c r="E87" t="n">
         <v>-0.1198975719099558</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>-0.05468012868262245</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>-0.1151772896661372</v>
       </c>
-      <c r="G87" t="n">
+      <c r="H87" t="n">
         <v>0.0604971609835148</v>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3059,22 +3494,27 @@
           <t>金井利博 - 核権力　ヒロシマの告発 3</t>
         </is>
       </c>
-      <c r="C88" t="n">
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
         <v>47018</v>
       </c>
-      <c r="D88" t="n">
+      <c r="E88" t="n">
         <v>-0.1412320449034164</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>-0.1097290058295258</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>-0.1438225568720925</v>
       </c>
-      <c r="G88" t="n">
+      <c r="H88" t="n">
         <v>0.03409355104256671</v>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3089,22 +3529,27 @@
           <t>金井利博 - 核権力　ヒロシマの告発 4</t>
         </is>
       </c>
-      <c r="C89" t="n">
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
         <v>56928</v>
       </c>
-      <c r="D89" t="n">
+      <c r="E89" t="n">
         <v>-0.04331543522252645</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>-0.01045812603648425</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>-0.03714671899564797</v>
       </c>
-      <c r="G89" t="n">
+      <c r="H89" t="n">
         <v>0.02668859295916372</v>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3119,22 +3564,27 @@
           <t>金井利博 - 核権力　ヒロシマの告発 5</t>
         </is>
       </c>
-      <c r="C90" t="n">
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
         <v>7047</v>
       </c>
-      <c r="D90" t="n">
+      <c r="E90" t="n">
         <v>0.006521679378822236</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>0.07777777777777778</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>0.006426356921406427</v>
       </c>
-      <c r="G90" t="n">
+      <c r="H90" t="n">
         <v>0.07135142085637135</v>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3149,22 +3599,27 @@
           <t>金井利博 - 核権力　ヒロシマの告発 6</t>
         </is>
       </c>
-      <c r="C91" t="n">
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
         <v>482</v>
       </c>
-      <c r="D91" t="n">
+      <c r="E91" t="n">
         <v>0.1133333333333333</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>0.5</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>0.08</v>
       </c>
-      <c r="G91" t="n">
+      <c r="H91" t="n">
         <v>0.42</v>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3179,22 +3634,27 @@
           <t>桂 芳久 - 氷牡丹</t>
         </is>
       </c>
-      <c r="C92" t="n">
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
         <v>8428</v>
       </c>
-      <c r="D92" t="n">
+      <c r="E92" t="n">
         <v>0.07357357357357357</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>0.04878048780487805</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>0.08638211382113821</v>
       </c>
-      <c r="G92" t="n">
+      <c r="H92" t="n">
         <v>-0.03760162601626016</v>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3209,22 +3669,27 @@
           <t>桂 芳久 - 火と碑</t>
         </is>
       </c>
-      <c r="C93" t="n">
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
         <v>8585</v>
       </c>
-      <c r="D93" t="n">
+      <c r="E93" t="n">
         <v>0.07105263157894737</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>0.06989247311827956</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>0.06838810641627543</v>
       </c>
-      <c r="G93" t="n">
+      <c r="H93" t="n">
         <v>0.001504366702004128</v>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3239,22 +3704,27 @@
           <t>川上宗薫 - 残存者</t>
         </is>
       </c>
-      <c r="C94" t="n">
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
         <v>23803</v>
       </c>
-      <c r="D94" t="n">
+      <c r="E94" t="n">
         <v>-0.1849976558837318</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>-0.06666666666666667</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>-0.1974279835390947</v>
       </c>
-      <c r="G94" t="n">
+      <c r="H94" t="n">
         <v>0.130761316872428</v>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3269,22 +3739,27 @@
           <t>小久保 均 - 夏の刻印</t>
         </is>
       </c>
-      <c r="C95" t="n">
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
         <v>37270</v>
       </c>
-      <c r="D95" t="n">
+      <c r="E95" t="n">
         <v>-0.02315242254106883</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>-0.03722320203801685</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>-0.01684531131025596</v>
       </c>
-      <c r="G95" t="n">
+      <c r="H95" t="n">
         <v>-0.02037789072776089</v>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3299,22 +3774,27 @@
           <t>栗田 藤平 - 青銅色の闇</t>
         </is>
       </c>
-      <c r="C96" t="n">
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
         <v>33305</v>
       </c>
-      <c r="D96" t="n">
+      <c r="E96" t="n">
         <v>-0.1387682662610059</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>0.004901960784313725</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>-0.1478350411894716</v>
       </c>
-      <c r="G96" t="n">
+      <c r="H96" t="n">
         <v>0.1527370019737853</v>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3329,22 +3809,27 @@
           <t>峡 草夫 - どくだみ草</t>
         </is>
       </c>
-      <c r="C97" t="n">
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
         <v>14654</v>
       </c>
-      <c r="D97" t="n">
+      <c r="E97" t="n">
         <v>-0.1363572433192686</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>-0.1290322580645161</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>-0.1370535714285714</v>
       </c>
-      <c r="G97" t="n">
+      <c r="H97" t="n">
         <v>0.008021313364055316</v>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3359,22 +3844,27 @@
           <t>中井 正文 - 名前のない男</t>
         </is>
       </c>
-      <c r="C98" t="n">
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
         <v>25890</v>
       </c>
-      <c r="D98" t="n">
+      <c r="E98" t="n">
         <v>-0.04392802783213742</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>-0.3333333333333333</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>-0.03936181778647532</v>
       </c>
-      <c r="G98" t="n">
+      <c r="H98" t="n">
         <v>-0.293971515546858</v>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3389,22 +3879,27 @@
           <t>中山 士朗 - 死の影</t>
         </is>
       </c>
-      <c r="C99" t="n">
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
         <v>35087</v>
       </c>
-      <c r="D99" t="n">
+      <c r="E99" t="n">
         <v>-0.1998597427476738</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>-0.1593023255813953</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>-0.2036095650381365</v>
       </c>
-      <c r="G99" t="n">
+      <c r="H99" t="n">
         <v>0.04430723945674112</v>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3419,22 +3914,27 @@
           <t>中里 喜昭 - 黄葵</t>
         </is>
       </c>
-      <c r="C100" t="n">
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
         <v>8204</v>
       </c>
-      <c r="D100" t="n">
+      <c r="E100" t="n">
         <v>-0.06912568306010929</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>-0.1071428571428571</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>-0.06246246246246246</v>
       </c>
-      <c r="G100" t="n">
+      <c r="H100" t="n">
         <v>-0.04468039468039468</v>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3449,22 +3949,27 @@
           <t>夏堀 正元 - 聖地の女</t>
         </is>
       </c>
-      <c r="C101" t="n">
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
         <v>17919</v>
       </c>
-      <c r="D101" t="n">
+      <c r="E101" t="n">
         <v>-0.001298284246261125</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>-0.009084967320261438</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>0.006744677393141557</v>
       </c>
-      <c r="G101" t="n">
+      <c r="H101" t="n">
         <v>-0.01582964471340299</v>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3479,22 +3984,27 @@
           <t>西原 啓 - 焦土</t>
         </is>
       </c>
-      <c r="C102" t="n">
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
         <v>39621</v>
       </c>
-      <c r="D102" t="n">
+      <c r="E102" t="n">
         <v>-0.2043779719245558</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>-0.09523809523809523</v>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>-0.2233256056211446</v>
       </c>
-      <c r="G102" t="n">
+      <c r="H102" t="n">
         <v>0.1280875103830494</v>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3509,22 +4019,27 @@
           <t>越智 道雄 - 遺贈された生活</t>
         </is>
       </c>
-      <c r="C103" t="n">
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
         <v>51383</v>
       </c>
-      <c r="D103" t="n">
+      <c r="E103" t="n">
         <v>-0.1190970242845742</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
         <v>0.01450719822812846</v>
       </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>-0.1297984224364593</v>
       </c>
-      <c r="G103" t="n">
+      <c r="H103" t="n">
         <v>0.1443056206645877</v>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3539,22 +4054,27 @@
           <t>小田 勝造 - 同窓会は夏に</t>
         </is>
       </c>
-      <c r="C104" t="n">
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
         <v>22957</v>
       </c>
-      <c r="D104" t="n">
+      <c r="E104" t="n">
         <v>-0.05956192080876158</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
         <v>0.01807228915662651</v>
       </c>
-      <c r="F104" t="n">
+      <c r="G104" t="n">
         <v>-0.1104025327905925</v>
       </c>
-      <c r="G104" t="n">
+      <c r="H104" t="n">
         <v>0.128474821947219</v>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3569,22 +4089,27 @@
           <t>小田 実 - HIROSHIMA 1</t>
         </is>
       </c>
-      <c r="C105" t="n">
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
         <v>194666</v>
       </c>
-      <c r="D105" t="n">
+      <c r="E105" t="n">
         <v>0.007276790155035455</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
         <v>-0.008434753211629479</v>
       </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
         <v>0.01475511502456602</v>
       </c>
-      <c r="G105" t="n">
+      <c r="H105" t="n">
         <v>-0.0231898682361955</v>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3599,22 +4124,27 @@
           <t>小田 実 - HIROSHIMA 2</t>
         </is>
       </c>
-      <c r="C106" t="n">
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
         <v>6948</v>
       </c>
-      <c r="D106" t="n">
+      <c r="E106" t="n">
         <v>-0.1238945578231292</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>0.06451612903225806</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>-0.1559047619047619</v>
       </c>
-      <c r="G106" t="n">
+      <c r="H106" t="n">
         <v>0.22042089093702</v>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3629,22 +4159,27 @@
           <t>小田 実 - HIROSHIMA 3</t>
         </is>
       </c>
-      <c r="C107" t="n">
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
         <v>47937</v>
       </c>
-      <c r="D107" t="n">
+      <c r="E107" t="n">
         <v>-0.05021602049594903</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
         <v>-0.03282828282828283</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>-0.08310652916459191</v>
       </c>
-      <c r="G107" t="n">
+      <c r="H107" t="n">
         <v>0.05027824633630908</v>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3659,22 +4194,27 @@
           <t>大江 健三郎 - ヒロシマ・ノ—卜 1</t>
         </is>
       </c>
-      <c r="C108" t="n">
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
         <v>27236</v>
       </c>
-      <c r="D108" t="n">
+      <c r="E108" t="n">
         <v>-0.03077504366978051</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
         <v>0</v>
       </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
         <v>-0.03077504366978051</v>
       </c>
-      <c r="G108" t="n">
+      <c r="H108" t="n">
         <v>0.03077504366978051</v>
       </c>
-      <c r="H108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3689,22 +4229,27 @@
           <t>大江 健三郎 - ヒロシマ・ノ—卜 2</t>
         </is>
       </c>
-      <c r="C109" t="n">
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
         <v>14917</v>
       </c>
-      <c r="D109" t="n">
+      <c r="E109" t="n">
         <v>-0.06367729775893041</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
         <v>0</v>
       </c>
-      <c r="F109" t="n">
+      <c r="G109" t="n">
         <v>-0.06367729775893041</v>
       </c>
-      <c r="G109" t="n">
+      <c r="H109" t="n">
         <v>0.06367729775893041</v>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3719,22 +4264,27 @@
           <t>大江 健三郎 - ヒロシマ・ノ—卜 3</t>
         </is>
       </c>
-      <c r="C110" t="n">
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
         <v>12614</v>
       </c>
-      <c r="D110" t="n">
+      <c r="E110" t="n">
         <v>-0.2529005036357977</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
         <v>0</v>
       </c>
-      <c r="F110" t="n">
+      <c r="G110" t="n">
         <v>-0.2521041389853271</v>
       </c>
-      <c r="G110" t="n">
+      <c r="H110" t="n">
         <v>0.2521041389853271</v>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3749,22 +4299,27 @@
           <t>大江 健三郎 - ヒロシマ・ノ—卜 4</t>
         </is>
       </c>
-      <c r="C111" t="n">
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
         <v>14323</v>
       </c>
-      <c r="D111" t="n">
+      <c r="E111" t="n">
         <v>-0.0001324166030048371</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
         <v>-1</v>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>-0.0005245734657499351</v>
       </c>
-      <c r="G111" t="n">
+      <c r="H111" t="n">
         <v>-0.99947542653425</v>
       </c>
-      <c r="H111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3779,22 +4334,27 @@
           <t>大江 健三郎 - ヒロシマ・ノ—卜 5</t>
         </is>
       </c>
-      <c r="C112" t="n">
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
         <v>12471</v>
       </c>
-      <c r="D112" t="n">
+      <c r="E112" t="n">
         <v>-0.2115290615290615</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
         <v>0</v>
       </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
         <v>-0.2115290615290615</v>
       </c>
-      <c r="G112" t="n">
+      <c r="H112" t="n">
         <v>0.2115290615290615</v>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3809,22 +4369,27 @@
           <t>大江 健三郎 - ヒロシマ・ノ—卜 6</t>
         </is>
       </c>
-      <c r="C113" t="n">
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
         <v>23739</v>
       </c>
-      <c r="D113" t="n">
+      <c r="E113" t="n">
         <v>-0.07585479797979798</v>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
         <v>-0.12</v>
       </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>-0.07466911428936746</v>
       </c>
-      <c r="G113" t="n">
+      <c r="H113" t="n">
         <v>-0.04533088571063254</v>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3839,22 +4404,27 @@
           <t>大江 健三郎 - ヒロシマ・ノ—卜 7</t>
         </is>
       </c>
-      <c r="C114" t="n">
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
         <v>10756</v>
       </c>
-      <c r="D114" t="n">
+      <c r="E114" t="n">
         <v>-0.1193506493506493</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
         <v>-0.2575757575757576</v>
       </c>
-      <c r="F114" t="n">
+      <c r="G114" t="n">
         <v>-0.1117840684660961</v>
       </c>
-      <c r="G114" t="n">
+      <c r="H114" t="n">
         <v>-0.1457916891096614</v>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3869,22 +4439,27 @@
           <t>大江 健三郎 - 核状況のカナリア理論</t>
         </is>
       </c>
-      <c r="C115" t="n">
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
         <v>16313</v>
       </c>
-      <c r="D115" t="n">
+      <c r="E115" t="n">
         <v>0.00650372517325307</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
         <v>-0.2046783625730994</v>
       </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>0.02398705096073517</v>
       </c>
-      <c r="G115" t="n">
+      <c r="H115" t="n">
         <v>-0.2286654135338346</v>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3899,22 +4474,27 @@
           <t>斎木寿夫 - 死者は裁かない</t>
         </is>
       </c>
-      <c r="C116" t="n">
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
         <v>17833</v>
       </c>
-      <c r="D116" t="n">
+      <c r="E116" t="n">
         <v>-0.1304807184363444</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
         <v>-0.1219178082191781</v>
       </c>
-      <c r="F116" t="n">
+      <c r="G116" t="n">
         <v>-0.1288180610889774</v>
       </c>
-      <c r="G116" t="n">
+      <c r="H116" t="n">
         <v>0.006900252869799339</v>
       </c>
-      <c r="H116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3929,22 +4509,27 @@
           <t>武田 泰淳 - 第一のボタン</t>
         </is>
       </c>
-      <c r="C117" t="n">
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
         <v>78975</v>
       </c>
-      <c r="D117" t="n">
+      <c r="E117" t="n">
         <v>0.004373659373659374</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
         <v>0.04536839611466477</v>
       </c>
-      <c r="F117" t="n">
+      <c r="G117" t="n">
         <v>-0.02311840678300306</v>
       </c>
-      <c r="G117" t="n">
+      <c r="H117" t="n">
         <v>0.06848680289766783</v>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3959,22 +4544,27 @@
           <t>佃 実夫 - 赤と黒の喪章</t>
         </is>
       </c>
-      <c r="C118" t="n">
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
         <v>68379</v>
       </c>
-      <c r="D118" t="n">
+      <c r="E118" t="n">
         <v>-0.04632821625724128</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
         <v>-0.01870421245421245</v>
       </c>
-      <c r="F118" t="n">
+      <c r="G118" t="n">
         <v>-0.06199314781404334</v>
       </c>
-      <c r="G118" t="n">
+      <c r="H118" t="n">
         <v>0.04328893535983089</v>
       </c>
-      <c r="H118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
